--- a/data/reporting/end_user_to_dofa.xlsx
+++ b/data/reporting/end_user_to_dofa.xlsx
@@ -4,18 +4,68 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985"/>
+    <workbookView xWindow="720" yWindow="465" windowWidth="17955" windowHeight="11985" tabRatio="625"/>
   </bookViews>
   <sheets>
-    <sheet name="End user to DofA (PO)" sheetId="2" r:id="rId1"/>
-    <sheet name="End user to DofA (IN)" sheetId="1" r:id="rId2"/>
+    <sheet name="End user to DofA" sheetId="5" r:id="rId1"/>
+    <sheet name="Exception report (PO)" sheetId="2" r:id="rId2"/>
+    <sheet name="Exception report (IN)" sheetId="1" r:id="rId3"/>
+    <sheet name="Exception report (SA)" sheetId="3" r:id="rId4"/>
+    <sheet name="Exception report (IP)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'End user to DofA (IN)'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'End user to DofA (PO)'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'End user to DofA'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exception report (IN)'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Exception report (IP)'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exception report (PO)'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Exception report (SA)'!$A$1:$I$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>NTID</t>
+  </si>
+  <si>
+    <t>First name</t>
+  </si>
+  <si>
+    <t>Last name</t>
+  </si>
+  <si>
+    <t>BB Job Role</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>DOA SRM Au</t>
+  </si>
+  <si>
+    <t>Employee G</t>
+  </si>
+  <si>
+    <t>User name</t>
+  </si>
+  <si>
+    <t>DOA Spend Limit</t>
+  </si>
+  <si>
+    <t>Crcy</t>
+  </si>
+  <si>
+    <t>Changed on</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Changed by</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -80,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -107,6 +157,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -408,9 +464,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="16" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -542,7 +768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -672,4 +898,268 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="26.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="58.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="26.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="58.5703125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" style="11" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="12"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="13"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/reporting/end_user_to_dofa.xlsx
+++ b/data/reporting/end_user_to_dofa.xlsx
@@ -14,7 +14,7 @@
     <sheet name="Exception report (IP)" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'End user to DofA'!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'End user to DofA'!$A$1:$N$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Exception report (IN)'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Exception report (IP)'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Exception report (PO)'!$A$1:$I$1</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>NTID</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Changed by</t>
+  </si>
+  <si>
+    <t>Mapping type</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -475,20 +478,20 @@
     <col min="1" max="1" width="11.28515625" style="9" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="16" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="5" width="19.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="16" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -502,131 +505,136 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="H1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="3"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="3"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="3"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="3"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I11" s="3"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I13" s="3"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I14" s="3"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I15" s="3"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="3"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="13"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="13"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:N1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
